--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_08-04.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_08-04.xlsx
@@ -1940,7 +1940,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Shieldguard"] "Rhodes Island, we invite you to fight with us."  
+    <t xml:space="preserve">[name="Shieldguard"] 'Rhodes Island, we invite you to fight with us.'  
 </t>
   </si>
   <si>
@@ -2884,7 +2884,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">"As move at teardrop's point, once known be deft." 
+    <t xml:space="preserve">'As move at teardrop's point, once known be deft.' 
 </t>
   </si>
   <si>
@@ -3248,7 +3248,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="방패병"] 바른길을 가로막는 모든 사람을 위한 복수다!
+    <t xml:space="preserve">[name="방패병"] 바른 길을 가로막는 모든 사람을 위한 복수다!
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_08-04.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_08-04.xlsx
@@ -2376,11 +2376,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"] I can’t...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"] I can’t.
+    <t xml:space="preserve">[name="Rosmontis"] I can't...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] I can't.
 </t>
   </si>
   <si>
@@ -2668,7 +2668,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  Definitely.
+    <t xml:space="preserve">[name="Ch'en"]  Definitely.
 </t>
   </si>
   <si>
@@ -2676,7 +2676,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  Ursus wouldn't give someone like me an entry permit.
+    <t xml:space="preserve">[name="Ch'en"]  Ursus wouldn't give someone like me an entry permit.
 </t>
   </si>
   <si>
@@ -2688,11 +2688,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  Don't ever call me that again, please.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  And what about you?
+    <t xml:space="preserve">[name="Ch'en"]  Don't ever call me that again, please.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  And what about you?
 </t>
   </si>
   <si>
@@ -2700,7 +2700,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  You just finished your military strategy course?
+    <t xml:space="preserve">[name="Ch'en"]  You just finished your military strategy course?
 </t>
   </si>
   <si>
@@ -2708,7 +2708,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  You've got a better head on your shoulders than 98% of Victoria. At least on paper. 
+    <t xml:space="preserve">[name="Ch'en"]  You've got a better head on your shoulders than 98% of Victoria. At least on paper. 
 </t>
   </si>
   <si>
@@ -2716,7 +2716,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  You really don't fear death. A Victorian soldier can end up running into all sorts of things on the battlefield. 
+    <t xml:space="preserve">[name="Ch'en"]  You really don't fear death. A Victorian soldier can end up running into all sorts of things on the battlefield. 
 </t>
   </si>
   <si>
@@ -2732,7 +2732,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  You really want to change Victoria? I thought... that was just a drunken ramble. 
+    <t xml:space="preserve">[name="Ch'en"]  You really want to change Victoria? I thought... that was just a drunken ramble. 
 </t>
   </si>
   <si>
@@ -2740,15 +2740,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  ——
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Doing good isn't easy.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  But it's the reason I'm going back to Lungmen. Lungmen's had enough of the bad. I'll stay there, fix up the bad things, stop it from getting worse.  
+    <t xml:space="preserve">[name="Ch'en"]  ——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Doing good isn't easy.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  But it's the reason I'm going back to Lungmen. Lungmen's had enough of the bad. I'll stay there, fix up the bad things, stop it from getting worse.  
 </t>
   </si>
   <si>
@@ -2756,7 +2756,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  A cop?
+    <t xml:space="preserve">[name="Ch'en"]  A cop?
 </t>
   </si>
   <si>
@@ -2764,15 +2764,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  You're getting ahead of yourself. But the police... 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  That's not a bad idea.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  It'd probably be a great place to pick up clues about what happened back then, and what's happening now... I wouldn't have to rely on my old schemer of an uncle.
+    <t xml:space="preserve">[name="Ch'en"]  You're getting ahead of yourself. But the police... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  That's not a bad idea.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  It'd probably be a great place to pick up clues about what happened back then, and what's happening now... I wouldn't have to rely on my old schemer of an uncle.
 </t>
   </si>
   <si>
@@ -2780,7 +2780,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  And I'll have your bloody head off.
+    <t xml:space="preserve">[name="Ch'en"]  And I'll have your bloody head off.
 </t>
   </si>
   <si>
@@ -2788,7 +2788,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  Hah. We'll see how much you can take. 
+    <t xml:space="preserve">[name="Ch'en"]  Hah. We'll see how much you can take. 
 </t>
   </si>
   <si>
@@ -2800,15 +2800,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  Why all the trouble? I'll take a look. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  ......
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  ...What? What... is this? 
+    <t xml:space="preserve">[name="Ch'en"]  Why all the trouble? I'll take a look. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  ...What? What... is this? 
 </t>
   </si>
   <si>
@@ -2832,11 +2832,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  I don't even know what I'm feeling.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  They picked up my friend's trail.
+    <t xml:space="preserve">[name="Ch'en"]  I don't even know what I'm feeling.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  They picked up my friend's trail.
 </t>
   </si>
   <si>
@@ -2844,15 +2844,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  No.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  It just led to her disappearing again. She... 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  She... killed the one who took her. And then... we lost her again. 
+    <t xml:space="preserve">[name="Ch'en"]  No.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  It just led to her disappearing again. She... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  She... killed the one who took her. And then... we lost her again. 
 </t>
   </si>
   <si>
@@ -2864,11 +2864,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  That's true.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  I'm going right back to Lungmen after graduation.
+    <t xml:space="preserve">[name="Ch'en"]  That's true.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  I'm going right back to Lungmen after graduation.
 </t>
   </si>
   <si>
@@ -2876,11 +2876,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  I wouldn't be able to do much in Ursus. But back in Lungmen, I'll have a chance to spread my influence. The city of Lungmen is a lot stronger than me alone. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  ...I am going to find her.
+    <t xml:space="preserve">[name="Ch'en"]  I wouldn't be able to do much in Ursus. But back in Lungmen, I'll have a chance to spread my influence. The city of Lungmen is a lot stronger than me alone. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  ...I am going to find her.
 </t>
   </si>
   <si>
@@ -3740,7 +3740,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="백파이프"]  니….! 난 니처럼 더러운 말 안 한다니. 아유…… 내가 참고 말지!
+    <t xml:space="preserve">[name="백파이프"]  니…! 난 니처럼 더러운 말 안 한다니. 아유…… 내가 참고 말지!
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_08-04.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_08-04.xlsx
@@ -3708,7 +3708,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="백파이프"]  …….니는 돌아가서 경찰 될라 그리나?
+    <t xml:space="preserve">[name="백파이프"]  ……니는 돌아가서 경찰 될라 그리나?
 </t>
   </si>
   <si>
